--- a/biology/Botanique/Dichrostachys_cinerea/Dichrostachys_cinerea.xlsx
+++ b/biology/Botanique/Dichrostachys_cinerea/Dichrostachys_cinerea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichrostachys cinerea est un arbuste de 4 à 7 m originaire d'Afrique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arbuste
@@ -546,9 +560,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (31 mars 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (31 mars 2016) :
 sous-espèce Dichrostachys cinerea subsp. africana Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. argillicola Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. burmana Brenan &amp; Brummitt
@@ -558,10 +574,10 @@
 sous-espèce Dichrostachys cinerea subsp. malesiana Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. nyassana
 sous-espèce Dichrostachys cinerea subsp. platycarpa (W.Bull)Brenan &amp; Brummitt
-Selon NCBI  (31 mars 2016)[3] :
+Selon NCBI  (31 mars 2016) :
 sous-espèce Dichrostachys cinerea subsp. africana
 sous-espèce Dichrostachys cinerea subsp. nyassana
-Selon The Plant List            (31 mars 2016)[4] :
+Selon The Plant List            (31 mars 2016) :
 sous-espèce Dichrostachys cinerea subsp. africana Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. forbesii (Benth.) Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. malesiana Brenan &amp; Brummitt
@@ -569,7 +585,7 @@
 sous-espèce Dichrostachys cinerea subsp. platycarpa (W.Bull) Brenan &amp; Brummitt
 variété Dichrostachys cinerea var. lugardiae (N.E. Br.) Brenan &amp; Brummitt
 variété Dichrostachys cinerea var. setulosa (Welw. ex Oliv.) Brenan &amp; Brummitt
-Selon Tropicos                                           (31 mars 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (31 mars 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Dichrostachys cinerea subsp. africana Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. argillicola Brenan &amp; Brummitt
 sous-espèce Dichrostachys cinerea subsp. burmana Brenan &amp; Brummitt
